--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\elec\DRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d08 elec\DRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A380548E-6B16-4593-9121-FADD63C8797E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="23955" windowHeight="12270"/>
+    <workbookView xWindow="6096" yWindow="2568" windowWidth="16944" windowHeight="11004" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,25 @@
     <sheet name="DRC-BDRC" sheetId="5" r:id="rId3"/>
     <sheet name="DRC-PADRC" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Year</t>
   </si>
@@ -72,6 +86,9 @@
     <t>Time (Year)</t>
   </si>
   <si>
+    <t>Peak Demand - EPS Output</t>
+  </si>
+  <si>
     <t>To estimate BAU DR Capacity, we scale Brattle's 2019 estimate of demand response potential by</t>
   </si>
   <si>
@@ -87,29 +104,36 @@
     <t>Peak Power Demand after Storage and DR[summer] : MostRecentRun</t>
   </si>
   <si>
-    <t>Peak Demand - US EPS (version 3.0)</t>
-  </si>
-  <si>
-    <t>Peak Demand - Brazil EPS (version 2.1.2)</t>
-  </si>
-  <si>
     <t>Peak Power Demand : MostRecentRun</t>
   </si>
   <si>
+    <t>Ratio of Brazil:US Peak Power Demand</t>
+  </si>
+  <si>
     <t>Ratio</t>
   </si>
   <si>
-    <t>Ratio of Brazil:US Peak Power Demand</t>
-  </si>
-  <si>
-    <t>We then scale to Brazil based on the ratio of Brazil:US peak power demand.</t>
+    <t>Peak Demand - Brazil EPS</t>
+  </si>
+  <si>
+    <t>PDE 2023-32</t>
+  </si>
+  <si>
+    <t>PDE2032_CadernoRequisitos_site_rev2.pdf; Premissas: Projeção de Carga, pg.5</t>
+  </si>
+  <si>
+    <t>From 2033-50, we used the same growth ratio used in Brazil EPS (version 2.1.2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="&quot;A demanda máxima apresenta taxa de crescimento de &quot;0.00%&quot; a.a. ao longo do horizonte decenal (2023-32)&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +153,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,21 +188,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -180,12 +209,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -201,9 +235,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,9 +275,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,7 +312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -486,151 +520,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="4" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B30" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -638,47 +629,48 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="12">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2019</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2">
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A3">
+    <row r="3" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>59000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>198000</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -779,327 +771,348 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9">
         <v>752136</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>683006</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="9">
         <v>728954</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>745991</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="9">
         <v>757422</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="9">
         <v>766081</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
         <v>772495</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="9">
         <v>776739</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="9">
         <v>779659</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="9">
         <v>784465</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="9">
         <v>792336</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="9">
         <v>796481</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="9">
         <v>800947</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="9">
         <v>806133</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="9">
         <v>810368</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="9">
         <v>814654</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="9">
         <v>819808</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="9">
         <v>824754</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="9">
         <v>830998</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="9">
         <v>836502</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="9">
         <v>841698</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="9">
         <v>847887</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="9">
         <v>853549</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="9">
         <v>859603</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="9">
         <v>866464</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="9">
         <v>873306</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="9">
         <v>881021</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="9">
         <v>888875</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="9">
         <v>896015</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AE7" s="9">
         <v>903925</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AF7" s="9">
         <v>912866</v>
       </c>
-      <c r="AG7" s="13">
+      <c r="AG7" s="9">
         <v>922440</v>
       </c>
-      <c r="AH7" s="13"/>
-    </row>
-    <row r="9" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G10">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H10">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="I10">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="J10">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="K10">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="L10">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="M10">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="N10">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="O10">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="P10">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="Q10">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="R10">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="S10">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="T10">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="U10">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="V10">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="W10">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="X10">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="Y10">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="Z10">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="AA10">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AB10">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AC10">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AD10">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AE10">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AF10">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AG10">
-        <v>2049</v>
-      </c>
-      <c r="AH10">
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11" spans="1:33" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9">
+        <v>99343.1</v>
+      </c>
+      <c r="C11" s="9">
+        <v>101859</v>
+      </c>
+      <c r="D11" s="9">
+        <v>104380</v>
+      </c>
+      <c r="E11" s="9">
+        <v>107196</v>
+      </c>
+      <c r="F11" s="9">
+        <f>(1+B20)*E11</f>
+        <v>110626.272</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" ref="G11:O11" si="0">(1+$B$20)*F11</f>
+        <v>114166.312704</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="0"/>
+        <v>117819.634710528</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="0"/>
+        <v>121589.8630212649</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
+        <v>125480.73863794538</v>
+      </c>
+      <c r="K11" s="9">
+        <f t="shared" si="0"/>
+        <v>129496.12227435964</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="0"/>
+        <v>133639.99818713916</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="0"/>
+        <v>137916.47812912762</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="0"/>
+        <v>142329.80542925969</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="0"/>
+        <v>146884.35920299601</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" ref="P11:AG11" si="1">(1+P23)*O11</f>
+        <v>149390.27650086867</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="1"/>
+        <v>151826.80260960863</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="1"/>
+        <v>154270.04399471625</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="1"/>
+        <v>156694.2587634488</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="1"/>
+        <v>159035.65179031328</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="1"/>
+        <v>161418.45568811178</v>
+      </c>
+      <c r="V11" s="9">
+        <f t="shared" si="1"/>
+        <v>163637.85452763006</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" si="1"/>
+        <v>165891.94896171469</v>
+      </c>
+      <c r="X11" s="9">
+        <f t="shared" si="1"/>
+        <v>168041.9566121003</v>
+      </c>
+      <c r="Y11" s="9">
+        <f t="shared" si="1"/>
+        <v>170261.35545161858</v>
+      </c>
+      <c r="Z11" s="9">
+        <f t="shared" si="1"/>
+        <v>172467.32373840149</v>
+      </c>
+      <c r="AA11" s="9">
+        <f t="shared" si="1"/>
+        <v>174722.53738521406</v>
+      </c>
+      <c r="AB11" s="9">
+        <f t="shared" si="1"/>
+        <v>176834.49180284949</v>
+      </c>
+      <c r="AC11" s="9">
+        <f t="shared" si="1"/>
+        <v>178620.75531665242</v>
+      </c>
+      <c r="AD11" s="9">
+        <f t="shared" si="1"/>
+        <v>180471.93316867622</v>
+      </c>
+      <c r="AE11" s="9">
+        <f t="shared" si="1"/>
+        <v>182247.00455519967</v>
+      </c>
+      <c r="AF11" s="9">
+        <f t="shared" si="1"/>
+        <v>184094.82476903967</v>
+      </c>
+      <c r="AG11" s="9">
+        <f t="shared" si="1"/>
+        <v>185860.94245373958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
-        <v>96808.5</v>
-      </c>
-      <c r="C11">
-        <v>99343.1</v>
-      </c>
-      <c r="D11">
-        <v>101859</v>
-      </c>
-      <c r="E11">
-        <v>104380</v>
-      </c>
-      <c r="F11">
-        <v>107196</v>
-      </c>
-      <c r="G11">
-        <v>109820</v>
-      </c>
-      <c r="H11">
-        <v>112494</v>
-      </c>
-      <c r="I11">
-        <v>115181</v>
-      </c>
-      <c r="J11">
-        <v>117596</v>
-      </c>
-      <c r="K11">
-        <v>120040</v>
-      </c>
-      <c r="L11">
-        <v>122503</v>
-      </c>
-      <c r="M11">
-        <v>124640</v>
-      </c>
-      <c r="N11">
-        <v>126967</v>
-      </c>
-      <c r="O11">
-        <v>129067</v>
-      </c>
-      <c r="P11">
-        <v>131239</v>
-      </c>
-      <c r="Q11">
-        <v>133478</v>
-      </c>
-      <c r="R11">
-        <v>135655</v>
-      </c>
-      <c r="S11">
-        <v>137838</v>
-      </c>
-      <c r="T11">
-        <v>140004</v>
-      </c>
-      <c r="U11">
-        <v>142096</v>
-      </c>
-      <c r="V11" s="13">
-        <v>144225</v>
-      </c>
-      <c r="W11" s="13">
-        <v>146208</v>
-      </c>
-      <c r="X11" s="13">
-        <v>148222</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>150143</v>
-      </c>
-      <c r="Z11" s="13">
-        <v>152126</v>
-      </c>
-      <c r="AA11" s="13">
-        <v>154097</v>
-      </c>
-      <c r="AB11" s="13">
-        <v>156112</v>
-      </c>
-      <c r="AC11" s="13">
-        <v>157999</v>
-      </c>
-      <c r="AD11" s="13">
-        <v>159595</v>
-      </c>
-      <c r="AE11" s="13">
-        <v>161249</v>
-      </c>
-      <c r="AF11" s="13">
-        <v>162835</v>
-      </c>
-      <c r="AG11" s="13">
-        <v>164486</v>
-      </c>
-      <c r="AH11" s="13">
-        <v>166064</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2019</v>
       </c>
@@ -1197,165 +1210,384 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
-        <f>C11/B7</f>
+      <c r="B15" s="10">
+        <f t="shared" ref="B15:AG15" si="2">B11/B7</f>
         <v>0.13208129912675368</v>
       </c>
-      <c r="C15">
-        <f t="shared" ref="C15:AG15" si="0">D11/C7</f>
+      <c r="C15" s="10">
+        <f t="shared" si="2"/>
         <v>0.14913338975060247</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
+      <c r="D15" s="10">
+        <f t="shared" si="2"/>
         <v>0.14319147710280758</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
+      <c r="E15" s="10">
+        <f t="shared" si="2"/>
         <v>0.14369610357229512</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0.14499182754131779</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0.14684347999754596</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0.14910258318824071</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>0.15139705872886516</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>0.15396474612619107</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>0.15616120540750703</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>0.15730700107025303</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>0.15940995453752194</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>0.16114299697732809</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>0.16280067929237482</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>0.16471282182909494</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>0.1665185465240458</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>0.16813449002693315</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>0.16975243527160827</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="0"/>
-        <v>0.17099439469168398</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>0.1724144114419332</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="0"/>
-        <v>0.17370600856839388</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="0"/>
-        <v>0.17481338904830479</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="0"/>
-        <v>0.1759043710437245</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="0"/>
-        <v>0.1769723930698241</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="0"/>
-        <v>0.17784581933005872</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="0"/>
-        <v>0.17875979324543745</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="0"/>
-        <v>0.17933624737662326</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="0"/>
-        <v>0.17954718042469414</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="0"/>
-        <v>0.17996238902250519</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="0"/>
-        <v>0.18014215781176535</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="0"/>
-        <v>0.18018635812923256</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="0"/>
-        <v>0.18002688521746671</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="8"/>
+      <c r="F15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.14605632263124124</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.14902642501772007</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.15251831365967158</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.15653889275711005</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.16094310286669605</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.16507571692090742</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.16866581625363378</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.17315727321697269</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.17770190215989284</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.18220859238239348</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.18434868664713891</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.18636967670889559</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.18817826124496986</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.1899890861559311</v>
+      </c>
+      <c r="T15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.19137910294647312</v>
+      </c>
+      <c r="U15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.19296840376724955</v>
+      </c>
+      <c r="V15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.19441397571056371</v>
+      </c>
+      <c r="W15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.1956533700383597</v>
+      </c>
+      <c r="X15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.19687441097359415</v>
+      </c>
+      <c r="Y15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.19806975481893221</v>
+      </c>
+      <c r="Z15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.19904730460630965</v>
+      </c>
+      <c r="AA15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.20007023584541278</v>
+      </c>
+      <c r="AB15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.20071541064611342</v>
+      </c>
+      <c r="AC15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.20095148959825895</v>
+      </c>
+      <c r="AD15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.20141619634568195</v>
+      </c>
+      <c r="AE15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.20161739586270949</v>
+      </c>
+      <c r="AF15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.20166686542059806</v>
+      </c>
+      <c r="AG15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.20148838130798705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B20" s="12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21">
+        <v>2032</v>
+      </c>
+      <c r="P21">
+        <v>2033</v>
+      </c>
+      <c r="Q21">
+        <v>2034</v>
+      </c>
+      <c r="R21">
+        <v>2035</v>
+      </c>
+      <c r="S21">
+        <v>2036</v>
+      </c>
+      <c r="T21">
+        <v>2037</v>
+      </c>
+      <c r="U21">
+        <v>2038</v>
+      </c>
+      <c r="V21">
+        <v>2039</v>
+      </c>
+      <c r="W21">
+        <v>2040</v>
+      </c>
+      <c r="X21">
+        <v>2041</v>
+      </c>
+      <c r="Y21">
+        <v>2042</v>
+      </c>
+      <c r="Z21">
+        <v>2043</v>
+      </c>
+      <c r="AA21">
+        <v>2044</v>
+      </c>
+      <c r="AB21">
+        <v>2045</v>
+      </c>
+      <c r="AC21">
+        <v>2046</v>
+      </c>
+      <c r="AD21">
+        <v>2047</v>
+      </c>
+      <c r="AE21">
+        <v>2048</v>
+      </c>
+      <c r="AF21">
+        <v>2049</v>
+      </c>
+      <c r="AG21">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="O22" s="9">
+        <v>131239</v>
+      </c>
+      <c r="P22" s="9">
+        <v>133478</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>135655</v>
+      </c>
+      <c r="R22" s="9">
+        <v>137838</v>
+      </c>
+      <c r="S22" s="9">
+        <v>140004</v>
+      </c>
+      <c r="T22" s="9">
+        <v>142096</v>
+      </c>
+      <c r="U22" s="9">
+        <v>144225</v>
+      </c>
+      <c r="V22" s="9">
+        <v>146208</v>
+      </c>
+      <c r="W22" s="9">
+        <v>148222</v>
+      </c>
+      <c r="X22" s="9">
+        <v>150143</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>152126</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>154097</v>
+      </c>
+      <c r="AA22" s="9">
+        <v>156112</v>
+      </c>
+      <c r="AB22" s="9">
+        <v>157999</v>
+      </c>
+      <c r="AC22" s="9">
+        <v>159595</v>
+      </c>
+      <c r="AD22" s="9">
+        <v>161249</v>
+      </c>
+      <c r="AE22" s="9">
+        <v>162835</v>
+      </c>
+      <c r="AF22" s="9">
+        <v>164486</v>
+      </c>
+      <c r="AG22" s="9">
+        <v>166064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="P23" s="11">
+        <f>(P22/O22-1)</f>
+        <v>1.7060477449538647E-2</v>
+      </c>
+      <c r="Q23" s="11">
+        <f t="shared" ref="Q23:AG23" si="3">(Q22/P22-1)</f>
+        <v>1.6309803862808891E-2</v>
+      </c>
+      <c r="R23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.6092292949025033E-2</v>
+      </c>
+      <c r="S23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.5714099159883421E-2</v>
+      </c>
+      <c r="T23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.4942430216279501E-2</v>
+      </c>
+      <c r="U23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.4982828510302859E-2</v>
+      </c>
+      <c r="V23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.3749349973998903E-2</v>
+      </c>
+      <c r="W23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.3774896038520446E-2</v>
+      </c>
+      <c r="X23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2960289295786076E-2</v>
+      </c>
+      <c r="Y23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.3207408936813492E-2</v>
+      </c>
+      <c r="Z23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2956365118388602E-2</v>
+      </c>
+      <c r="AA23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.3076179289668088E-2</v>
+      </c>
+      <c r="AB23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2087475658501656E-2</v>
+      </c>
+      <c r="AC23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0101329755251687E-2</v>
+      </c>
+      <c r="AD23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0363733199661551E-2</v>
+      </c>
+      <c r="AE23" s="11">
+        <f t="shared" si="3"/>
+        <v>9.8357199114413874E-3</v>
+      </c>
+      <c r="AF23" s="11">
+        <f t="shared" si="3"/>
+        <v>1.0139097859796831E-2</v>
+      </c>
+      <c r="AG23" s="11">
+        <f t="shared" si="3"/>
+        <v>9.5935216370999221E-3</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B20:K20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.265625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1459,141 +1691,141 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <f>C2</f>
         <v>7792.7966484784665</v>
       </c>
-      <c r="C2" s="8">
-        <f>Calculations!A3*Calculations!B15</f>
+      <c r="C2" s="5">
+        <f>(Calculations!$A$3*Calculations!B15)*(Calculations!B7/Calculations!$B$7)</f>
         <v>7792.7966484784665</v>
       </c>
-      <c r="D2" s="8">
-        <f>$C$2*(Calculations!C7/Calculations!$B$7)</f>
-        <v>7076.5484801826842</v>
-      </c>
-      <c r="E2" s="8">
-        <f>$C$2*(Calculations!D7/Calculations!$B$7)</f>
-        <v>7552.6105492822735</v>
-      </c>
-      <c r="F2" s="8">
-        <f>$C$2*(Calculations!E7/Calculations!$B$7)</f>
-        <v>7729.1289934202059</v>
-      </c>
-      <c r="G2" s="8">
-        <f>$C$2*(Calculations!F7/Calculations!$B$7)</f>
-        <v>7847.5643009826108</v>
-      </c>
-      <c r="H2" s="8">
-        <f>$C$2*(Calculations!G7/Calculations!$B$7)</f>
-        <v>7937.2792277766684</v>
-      </c>
-      <c r="I2" s="8">
-        <f>$C$2*(Calculations!H7/Calculations!$B$7)</f>
-        <v>8003.7339616324352</v>
-      </c>
-      <c r="J2" s="8">
-        <f>$C$2*(Calculations!I7/Calculations!$B$7)</f>
-        <v>8047.7055691291416</v>
-      </c>
-      <c r="K2" s="8">
-        <f>$C$2*(Calculations!J7/Calculations!$B$7)</f>
-        <v>8077.9593612805029</v>
-      </c>
-      <c r="L2" s="8">
-        <f>$C$2*(Calculations!K7/Calculations!$B$7)</f>
-        <v>8127.7537876775741</v>
-      </c>
-      <c r="M2" s="8">
-        <f>$C$2*(Calculations!L7/Calculations!$B$7)</f>
-        <v>8209.304334945853</v>
-      </c>
-      <c r="N2" s="8">
-        <f>$C$2*(Calculations!M7/Calculations!$B$7)</f>
-        <v>8252.2502145579765</v>
-      </c>
-      <c r="O2" s="8">
-        <f>$C$2*(Calculations!N7/Calculations!$B$7)</f>
-        <v>8298.5219391292048</v>
-      </c>
-      <c r="P2" s="8">
-        <f>$C$2*(Calculations!O7/Calculations!$B$7)</f>
-        <v>8352.25350286104</v>
-      </c>
-      <c r="Q2" s="8">
-        <f>$C$2*(Calculations!P7/Calculations!$B$7)</f>
-        <v>8396.13186236824</v>
-      </c>
-      <c r="R2" s="8">
-        <f>$C$2*(Calculations!Q7/Calculations!$B$7)</f>
-        <v>8440.5386271493153</v>
-      </c>
-      <c r="S2" s="8">
-        <f>$C$2*(Calculations!R7/Calculations!$B$7)</f>
-        <v>8493.9386424740132</v>
-      </c>
-      <c r="T2" s="8">
-        <f>$C$2*(Calculations!S7/Calculations!$B$7)</f>
-        <v>8545.1835931523146</v>
-      </c>
-      <c r="U2" s="8">
-        <f>$C$2*(Calculations!T7/Calculations!$B$7)</f>
-        <v>8609.87697609516</v>
-      </c>
-      <c r="V2" s="8">
-        <f>$C$2*(Calculations!U7/Calculations!$B$7)</f>
-        <v>8666.9033021229316</v>
-      </c>
-      <c r="W2" s="8">
-        <f>$C$2*(Calculations!V7/Calculations!$B$7)</f>
-        <v>8720.7384747320011</v>
-      </c>
-      <c r="X2" s="8">
-        <f>$C$2*(Calculations!W7/Calculations!$B$7)</f>
-        <v>8784.8620088500775</v>
-      </c>
-      <c r="Y2" s="8">
-        <f>$C$2*(Calculations!X7/Calculations!$B$7)</f>
-        <v>8843.5253551380956</v>
-      </c>
-      <c r="Z2" s="8">
-        <f>$C$2*(Calculations!Y7/Calculations!$B$7)</f>
-        <v>8906.2501694135572</v>
-      </c>
-      <c r="AA2" s="8">
-        <f>$C$2*(Calculations!Z7/Calculations!$B$7)</f>
-        <v>8977.3362200815354</v>
-      </c>
-      <c r="AB2" s="8">
-        <f>$C$2*(Calculations!AA7/Calculations!$B$7)</f>
-        <v>9048.2254138827757</v>
-      </c>
-      <c r="AC2" s="8">
-        <f>$C$2*(Calculations!AB7/Calculations!$B$7)</f>
-        <v>9128.1596626662558</v>
-      </c>
-      <c r="AD2" s="8">
-        <f>$C$2*(Calculations!AC7/Calculations!$B$7)</f>
-        <v>9209.5340748432409</v>
-      </c>
-      <c r="AE2" s="8">
-        <f>$C$2*(Calculations!AD7/Calculations!$B$7)</f>
-        <v>9283.5108131859579</v>
-      </c>
-      <c r="AF2" s="8">
-        <f>$C$2*(Calculations!AE7/Calculations!$B$7)</f>
-        <v>9365.4654350754372</v>
-      </c>
-      <c r="AG2" s="8">
-        <f>$C$2*(Calculations!AF7/Calculations!$B$7)</f>
-        <v>9458.1021322073975</v>
-      </c>
-      <c r="AH2" s="8">
-        <f>$C$2*(Calculations!AG7/Calculations!$B$7)</f>
-        <v>9557.2972712680657</v>
+      <c r="D2" s="5">
+        <f>(Calculations!$A$3*Calculations!C15)*(Calculations!C7/Calculations!$B$7)</f>
+        <v>7990.1520469702282</v>
+      </c>
+      <c r="E2" s="5">
+        <f>(Calculations!$A$3*Calculations!D15)*(Calculations!D7/Calculations!$B$7)</f>
+        <v>8187.9075060893238</v>
+      </c>
+      <c r="F2" s="5">
+        <f>(Calculations!$A$3*Calculations!E15)*(Calculations!E7/Calculations!$B$7)</f>
+        <v>8408.8037269855449</v>
+      </c>
+      <c r="G2" s="5">
+        <f>(Calculations!$A$3*Calculations!F15)*(Calculations!F7/Calculations!$B$7)</f>
+        <v>8677.8854462490817</v>
+      </c>
+      <c r="H2" s="5">
+        <f>(Calculations!$A$3*Calculations!G15)*(Calculations!G7/Calculations!$B$7)</f>
+        <v>8955.5777805290545</v>
+      </c>
+      <c r="I2" s="5">
+        <f>(Calculations!$A$3*Calculations!H15)*(Calculations!H7/Calculations!$B$7)</f>
+        <v>9242.156269505982</v>
+      </c>
+      <c r="J2" s="5">
+        <f>(Calculations!$A$3*Calculations!I15)*(Calculations!I7/Calculations!$B$7)</f>
+        <v>9537.9052701301771</v>
+      </c>
+      <c r="K2" s="5">
+        <f>(Calculations!$A$3*Calculations!J15)*(Calculations!J7/Calculations!$B$7)</f>
+        <v>9843.1182387743393</v>
+      </c>
+      <c r="L2" s="5">
+        <f>(Calculations!$A$3*Calculations!K15)*(Calculations!K7/Calculations!$B$7)</f>
+        <v>10158.098022415119</v>
+      </c>
+      <c r="M2" s="5">
+        <f>(Calculations!$A$3*Calculations!L15)*(Calculations!L7/Calculations!$B$7)</f>
+        <v>10483.157159132405</v>
+      </c>
+      <c r="N2" s="5">
+        <f>(Calculations!$A$3*Calculations!M15)*(Calculations!M7/Calculations!$B$7)</f>
+        <v>10818.618188224644</v>
+      </c>
+      <c r="O2" s="5">
+        <f>(Calculations!$A$3*Calculations!N15)*(Calculations!N7/Calculations!$B$7)</f>
+        <v>11164.813970247831</v>
+      </c>
+      <c r="P2" s="5">
+        <f>(Calculations!$A$3*Calculations!O15)*(Calculations!O7/Calculations!$B$7)</f>
+        <v>11522.08801729576</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>(Calculations!$A$3*Calculations!P15)*(Calculations!P7/Calculations!$B$7)</f>
+        <v>11718.660340086435</v>
+      </c>
+      <c r="R2" s="5">
+        <f>(Calculations!$A$3*Calculations!Q15)*(Calculations!Q7/Calculations!$B$7)</f>
+        <v>11909.789391768125</v>
+      </c>
+      <c r="S2" s="5">
+        <f>(Calculations!$A$3*Calculations!R15)*(Calculations!R7/Calculations!$B$7)</f>
+        <v>12101.445211621647</v>
+      </c>
+      <c r="T2" s="5">
+        <f>(Calculations!$A$3*Calculations!S15)*(Calculations!S7/Calculations!$B$7)</f>
+        <v>12291.608521654965</v>
+      </c>
+      <c r="U2" s="5">
+        <f>(Calculations!$A$3*Calculations!T15)*(Calculations!T7/Calculations!$B$7)</f>
+        <v>12475.27502423562</v>
+      </c>
+      <c r="V2" s="5">
+        <f>(Calculations!$A$3*Calculations!U15)*(Calculations!U7/Calculations!$B$7)</f>
+        <v>12662.189930542607</v>
+      </c>
+      <c r="W2" s="5">
+        <f>(Calculations!$A$3*Calculations!V15)*(Calculations!V7/Calculations!$B$7)</f>
+        <v>12836.286811334883</v>
+      </c>
+      <c r="X2" s="5">
+        <f>(Calculations!$A$3*Calculations!W15)*(Calculations!W7/Calculations!$B$7)</f>
+        <v>13013.105327681653</v>
+      </c>
+      <c r="Y2" s="5">
+        <f>(Calculations!$A$3*Calculations!X15)*(Calculations!X7/Calculations!$B$7)</f>
+        <v>13181.758937364941</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>(Calculations!$A$3*Calculations!Y15)*(Calculations!Y7/Calculations!$B$7)</f>
+        <v>13355.855818157217</v>
+      </c>
+      <c r="AA2" s="5">
+        <f>(Calculations!$A$3*Calculations!Z15)*(Calculations!Z7/Calculations!$B$7)</f>
+        <v>13528.899162605814</v>
+      </c>
+      <c r="AB2" s="5">
+        <f>(Calculations!$A$3*Calculations!AA15)*(Calculations!AA7/Calculations!$B$7)</f>
+        <v>13705.80547364789</v>
+      </c>
+      <c r="AC2" s="5">
+        <f>(Calculations!$A$3*Calculations!AB15)*(Calculations!AB7/Calculations!$B$7)</f>
+        <v>13871.47406369077</v>
+      </c>
+      <c r="AD2" s="5">
+        <f>(Calculations!$A$3*Calculations!AC15)*(Calculations!AC7/Calculations!$B$7)</f>
+        <v>14011.594397399529</v>
+      </c>
+      <c r="AE2" s="5">
+        <f>(Calculations!$A$3*Calculations!AD15)*(Calculations!AD7/Calculations!$B$7)</f>
+        <v>14156.806823436051</v>
+      </c>
+      <c r="AF2" s="5">
+        <f>(Calculations!$A$3*Calculations!AE15)*(Calculations!AE7/Calculations!$B$7)</f>
+        <v>14296.049210191752</v>
+      </c>
+      <c r="AG2" s="5">
+        <f>(Calculations!$A$3*Calculations!AF15)*(Calculations!AF7/Calculations!$B$7)</f>
+        <v>14440.99825214235</v>
+      </c>
+      <c r="AH2" s="5">
+        <f>(Calculations!$A$3*Calculations!AG15)*(Calculations!AG7/Calculations!$B$7)</f>
+        <v>14579.538281335603</v>
       </c>
     </row>
   </sheetData>
@@ -1602,22 +1834,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1721,141 +1953,141 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <f>C2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <f>Calculations!A3*Calculations!B15-'DRC-BDRC'!C2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="5">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!D1)*Calculations!B15-'DRC-BDRC'!D2</f>
-        <v>2385.2754936247165</v>
-      </c>
-      <c r="E2" s="8">
+        <v>1471.6719268371726</v>
+      </c>
+      <c r="E2" s="5">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!E1)*Calculations!C15-'DRC-BDRC'!E2</f>
-        <v>5015.2669324280432</v>
-      </c>
-      <c r="F2" s="8">
+        <v>4379.969975620993</v>
+      </c>
+      <c r="F2" s="5">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!F1)*Calculations!D15-'DRC-BDRC'!F2</f>
-        <v>6147.4268785431714</v>
-      </c>
-      <c r="G2" s="8">
+        <v>5467.7521449778324</v>
+      </c>
+      <c r="G2" s="5">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!G1)*Calculations!E15-'DRC-BDRC'!G2</f>
-        <v>7893.6906812555135</v>
-      </c>
-      <c r="H2" s="8">
+        <v>7063.3695359890426</v>
+      </c>
+      <c r="H2" s="5">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!H1)*Calculations!F15-'DRC-BDRC'!H2</f>
-        <v>9778.0858827264565</v>
-      </c>
-      <c r="I2" s="8">
+        <v>8889.8492755065363</v>
+      </c>
+      <c r="I2" s="5">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!I1)*Calculations!G15-'DRC-BDRC'!I2</f>
-        <v>11793.437023491511</v>
-      </c>
-      <c r="J2" s="8">
+        <v>10849.315394246894</v>
+      </c>
+      <c r="J2" s="5">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!J1)*Calculations!H15-'DRC-BDRC'!J2</f>
-        <v>13938.148060991643</v>
-      </c>
-      <c r="K2" s="8">
+        <v>12951.613344050693</v>
+      </c>
+      <c r="K2" s="5">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!K1)*Calculations!I15-'DRC-BDRC'!K2</f>
-        <v>16159.333404313427</v>
-      </c>
-      <c r="L2" s="8">
+        <v>15217.335410795891</v>
+      </c>
+      <c r="L2" s="5">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!L1)*Calculations!J15-'DRC-BDRC'!L2</f>
-        <v>18466.156906846441</v>
-      </c>
-      <c r="M2" s="8">
+        <v>17641.165200014308</v>
+      </c>
+      <c r="M2" s="5">
         <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!M1)*Calculations!K15-'DRC-BDRC'!M2</f>
-        <v>20737.304558318458</v>
-      </c>
-      <c r="N2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!N1)*Calculations!M15-'DRC-BDRC'!N2</f>
-        <v>23310.92078387137</v>
-      </c>
-      <c r="O2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!O1)*Calculations!N15-'DRC-BDRC'!O2</f>
-        <v>25644.052969640667</v>
-      </c>
-      <c r="P2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!P1)*Calculations!O15-'DRC-BDRC'!P2</f>
-        <v>27996.698164600599</v>
-      </c>
-      <c r="Q2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Q1)*Calculations!P15-'DRC-BDRC'!Q2</f>
-        <v>30461.120196405063</v>
-      </c>
-      <c r="R2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!R1)*Calculations!Q15-'DRC-BDRC'!R2</f>
-        <v>32946.889208918466</v>
-      </c>
-      <c r="S2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!S1)*Calculations!R15-'DRC-BDRC'!S2</f>
-        <v>35419.733161833501</v>
-      </c>
-      <c r="T2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!T1)*Calculations!S15-'DRC-BDRC'!T2</f>
-        <v>37936.119592128343</v>
-      </c>
-      <c r="U2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!U1)*Calculations!T15-'DRC-BDRC'!U2</f>
-        <v>40372.244630586545</v>
-      </c>
-      <c r="V2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!V1)*Calculations!U15-'DRC-BDRC'!V2</f>
-        <v>42900.679756419078</v>
-      </c>
-      <c r="W2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!W1)*Calculations!V15-'DRC-BDRC'!W2</f>
-        <v>45428.161832633807</v>
-      </c>
-      <c r="X2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!X1)*Calculations!W15-'DRC-BDRC'!X2</f>
-        <v>47918.244547909213</v>
-      </c>
-      <c r="Y2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Y1)*Calculations!X15-'DRC-BDRC'!Y2</f>
-        <v>50436.24768659706</v>
-      </c>
-      <c r="Z2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Z1)*Calculations!Y15-'DRC-BDRC'!Z2</f>
-        <v>52969.733807544879</v>
-      </c>
-      <c r="AA2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AA1)*Calculations!Z15-'DRC-BDRC'!AA2</f>
-        <v>55451.3537826721</v>
-      </c>
-      <c r="AB2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AB1)*Calculations!AA15-'DRC-BDRC'!AB2</f>
-        <v>57970.446162861706</v>
-      </c>
-      <c r="AC2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AC1)*Calculations!AB15-'DRC-BDRC'!AC2</f>
-        <v>60372.78784338371</v>
-      </c>
-      <c r="AD2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AD1)*Calculations!AC15-'DRC-BDRC'!AD2</f>
-        <v>62641.983036930171</v>
-      </c>
-      <c r="AE2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AE1)*Calculations!AD15-'DRC-BDRC'!AE2</f>
-        <v>65008.235418741257</v>
-      </c>
-      <c r="AF2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AF1)*Calculations!AE15-'DRC-BDRC'!AF2</f>
-        <v>67276.834433930417</v>
-      </c>
-      <c r="AG2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AG1)*Calculations!AF15-'DRC-BDRC'!AG2</f>
-        <v>69479.903306408392</v>
-      </c>
-      <c r="AH2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AH1)*Calculations!AG15-'DRC-BDRC'!AH2</f>
-        <v>71585.729720386604</v>
+        <v>20115.87800466131</v>
+      </c>
+      <c r="N2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!N1)*Calculations!L15-'DRC-BDRC'!N2</f>
+        <v>22577.213429994845</v>
+      </c>
+      <c r="O2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!O1)*Calculations!M15-'DRC-BDRC'!O2</f>
+        <v>25308.404397363542</v>
+      </c>
+      <c r="P2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!P1)*Calculations!N15-'DRC-BDRC'!P2</f>
+        <v>28153.900319495398</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Q1)*Calculations!O15-'DRC-BDRC'!Q2</f>
+        <v>31266.003044669611</v>
+      </c>
+      <c r="R2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!R1)*Calculations!P15-'DRC-BDRC'!R2</f>
+        <v>33909.238725803021</v>
+      </c>
+      <c r="S2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!S1)*Calculations!Q15-'DRC-BDRC'!S2</f>
+        <v>36574.925805165731</v>
+      </c>
+      <c r="T2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!T1)*Calculations!R15-'DRC-BDRC'!T2</f>
+        <v>39235.020830149835</v>
+      </c>
+      <c r="U2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!U1)*Calculations!S15-'DRC-BDRC'!U2</f>
+        <v>41947.962291886353</v>
+      </c>
+      <c r="V2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!V1)*Calculations!T15-'DRC-BDRC'!V2</f>
+        <v>44577.559950720912</v>
+      </c>
+      <c r="W2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!W1)*Calculations!U15-'DRC-BDRC'!W2</f>
+        <v>47317.227417565133</v>
+      </c>
+      <c r="X2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!X1)*Calculations!V15-'DRC-BDRC'!X2</f>
+        <v>50047.718793708533</v>
+      </c>
+      <c r="Y2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Y1)*Calculations!W15-'DRC-BDRC'!Y2</f>
+        <v>52753.426765562283</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!Z1)*Calculations!X15-'DRC-BDRC'!Z2</f>
+        <v>55478.59732770118</v>
+      </c>
+      <c r="AA2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AA1)*Calculations!Y15-'DRC-BDRC'!AA2</f>
+        <v>58226.371105889775</v>
+      </c>
+      <c r="AB2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AB1)*Calculations!Z15-'DRC-BDRC'!AB2</f>
+        <v>60918.838544209102</v>
+      </c>
+      <c r="AC2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AC1)*Calculations!AA15-'DRC-BDRC'!AC2</f>
+        <v>63664.836428036491</v>
+      </c>
+      <c r="AD2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AD1)*Calculations!AB15-'DRC-BDRC'!AD2</f>
+        <v>66311.063572072817</v>
+      </c>
+      <c r="AE2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AE1)*Calculations!AC15-'DRC-BDRC'!AE2</f>
+        <v>68799.621746172823</v>
+      </c>
+      <c r="AF2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AF1)*Calculations!AD15-'DRC-BDRC'!AF2</f>
+        <v>71397.387053244121</v>
+      </c>
+      <c r="AG2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AG1)*Calculations!AE15-'DRC-BDRC'!AG2</f>
+        <v>73885.749989893942</v>
+      </c>
+      <c r="AH2" s="5">
+        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!AH1)*Calculations!AF15-'DRC-BDRC'!AH2</f>
+        <v>76317.217969148653</v>
       </c>
     </row>
   </sheetData>
